--- a/Zeitblätter/Thomas Rienößl.xlsx
+++ b/Zeitblätter/Thomas Rienößl.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>Zeitblatt: Thomas Rienößl</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Lerntagebuch schreiben</t>
+  </si>
+  <si>
+    <t>Aufbau Berechnungsbeispiele mit Grafiken, Kampf mit CCS beim Versuch beispiel zum laufen zu bringen (Kampf verloren)</t>
   </si>
   <si>
     <t>Summe</t>
@@ -206,7 +209,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -448,6 +451,12 @@
         <f aca="false">A26+1</f>
         <v>42667</v>
       </c>
+      <c r="B27" s="0" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
@@ -496,11 +505,11 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
-        <v>32</v>
+        <v>36.25</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +744,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
@@ -977,7 +986,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
@@ -1219,7 +1228,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">SUM(B5:B34)</f>
